--- a/backend/app/data/RESULT.xlsx
+++ b/backend/app/data/RESULT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="BALOD" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,7 +36,7 @@
     <sheet name="KHAIRAGAD" sheetId="26" state="visible" r:id="rId28"/>
     <sheet name="MUDHIPAR" sheetId="27" state="visible" r:id="rId29"/>
     <sheet name="DALLIRAJHARA" sheetId="28" state="visible" r:id="rId30"/>
-    <sheet name="DONGAR GAD" sheetId="29" state="visible" r:id="rId31"/>
+    <sheet name="DONGARGAD" sheetId="29" state="visible" r:id="rId31"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -206,6 +206,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -225,6 +226,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">समता जी लोढा</t>
     </r>
@@ -242,6 +244,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -261,6 +264,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">महक जी गोलछा</t>
     </r>
@@ -272,6 +276,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -291,6 +296,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">शीतल सुराना</t>
     </r>
@@ -302,6 +308,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -321,6 +328,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">नीतू जी सुराना</t>
     </r>
@@ -332,6 +340,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -351,6 +360,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">प्राची जी बोथरा</t>
     </r>
@@ -503,6 +513,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -522,6 +533,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">भूमि जी जैन</t>
     </r>
@@ -611,6 +623,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -630,6 +643,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">तनिशा जी बोथरा </t>
     </r>
@@ -641,6 +655,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -660,6 +675,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">तिथि जी गोगड़</t>
     </r>
@@ -674,6 +690,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -693,6 +710,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ओजस्वी जी लूनीया</t>
     </r>
@@ -716,6 +734,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -735,6 +754,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">उर्वी जी बोथरा</t>
     </r>
@@ -755,6 +775,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -774,6 +795,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">हर्षिता जी बोथरा</t>
     </r>
@@ -788,6 +810,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -807,6 +830,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">रूपाली जी जैन</t>
     </r>
@@ -857,6 +881,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -876,6 +901,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">रिद्धी जी बरड़िया </t>
     </r>
@@ -896,6 +922,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -915,6 +942,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">आरती कुंभट</t>
     </r>
@@ -965,6 +993,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -984,6 +1013,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">हर्षिता जी कोठारी</t>
     </r>
@@ -1001,6 +1031,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -1020,6 +1051,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">मौली जी कोठारी </t>
     </r>
@@ -1109,6 +1141,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -1128,6 +1161,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">हर्षिका जी चोरड़िया </t>
     </r>
@@ -1145,6 +1179,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -1164,6 +1199,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">प्राची जी चोरड़िया</t>
     </r>
@@ -1187,6 +1223,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -1206,6 +1243,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">सिद्धि जी जैन</t>
     </r>
@@ -1223,6 +1261,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -1242,6 +1281,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">महि जी जैन</t>
     </r>
@@ -1253,6 +1293,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -1272,6 +1313,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">नव्या जी तातेड़</t>
     </r>
@@ -1454,6 +1496,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">कु</t>
     </r>
@@ -1473,6 +1516,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">अंकिता जी चोपड़ा</t>
     </r>
@@ -1555,6 +1599,7 @@
       <color theme="1"/>
       <name val="Noto Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1599,16 +1644,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1864,639 +1913,639 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.22"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2520,572 +2569,572 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3114,300 +3163,300 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3428,289 +3477,338 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>64</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+    </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T27" s="0" t="s">
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="S27" s="1" t="s">
         <v>242</v>
       </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3737,665 +3835,665 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4562,200 +4660,200 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4807,7 +4905,7 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4994,14 +5092,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5020,117 +5118,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>58</v>
       </c>
     </row>
@@ -5159,143 +5257,143 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>87</v>
       </c>
     </row>
@@ -5319,134 +5417,134 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>29</v>
       </c>
     </row>
@@ -5475,185 +5573,185 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>62</v>
       </c>
     </row>
@@ -5682,242 +5780,242 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>60</v>
       </c>
     </row>
@@ -5946,298 +6044,298 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6266,329 +6364,329 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>14</v>
       </c>
     </row>
